--- a/r_optimal_vars_leader.xlsx
+++ b/r_optimal_vars_leader.xlsx
@@ -3171,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3426,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4480,7 +4480,7 @@
         <v>9</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4956,7 +4956,7 @@
         <v>7</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5483,7 +5483,7 @@
         <v>8</v>
       </c>
       <c r="E300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:5">

--- a/r_optimal_vars_leader.xlsx
+++ b/r_optimal_vars_leader.xlsx
@@ -3171,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3426,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4480,7 +4480,7 @@
         <v>9</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4956,7 +4956,7 @@
         <v>7</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5483,7 +5483,7 @@
         <v>8</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:5">
